--- a/data/trans_orig/Q17F_D_R-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/Q17F_D_R-Estudios-trans_orig.xlsx
@@ -704,40 +704,40 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>8.434102947671079</v>
+        <v>8.600686361913462</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>8.364717915947942</v>
+        <v>8.264978176365187</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>9.247595618694509</v>
+        <v>9.331208347194831</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>19.12986578712498</v>
+        <v>18.81585662828373</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>5.882616587323682</v>
+        <v>6.066132681990802</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>6.761054324664456</v>
+        <v>6.694611698928148</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>9.54011848344541</v>
+        <v>9.190627487934485</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>19.52039064200756</v>
+        <v>19.5590315419717</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>7.53370908177502</v>
+        <v>7.533847481366221</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>8.088053655966609</v>
+        <v>7.943439678174092</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>10.18961281869926</v>
+        <v>9.95021066584556</v>
       </c>
       <c r="N5" s="5" t="n">
-        <v>20.69744806517863</v>
+        <v>21.35809206823948</v>
       </c>
     </row>
     <row r="6">
@@ -748,40 +748,40 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>19.49560089483944</v>
+        <v>20.11846071130507</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>14.9929278895679</v>
+        <v>14.95670342626748</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>19.25042396776084</v>
+        <v>19.20194420415931</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>45.10324952896002</v>
+        <v>44.42385609642599</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>11.27472544885508</v>
+        <v>11.00838616341709</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>13.32148150031107</v>
+        <v>13.24022169075206</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>17.40579815437491</v>
+        <v>17.64530960637502</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>35.2667496997266</v>
+        <v>36.63130370481797</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>12.77430640933249</v>
+        <v>12.66602374325785</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>12.7870035303322</v>
+        <v>12.45372455799712</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>16.2907227896225</v>
+        <v>16.25545355113614</v>
       </c>
       <c r="N6" s="5" t="n">
-        <v>34.33553124819595</v>
+        <v>34.21301537108347</v>
       </c>
     </row>
     <row r="7">
@@ -829,7 +829,7 @@
         <v>12.57601916586037</v>
       </c>
       <c r="N7" s="5" t="n">
-        <v>21.71124853109144</v>
+        <v>21.71124853109145</v>
       </c>
     </row>
     <row r="8">
@@ -840,40 +840,40 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>6.348967481986533</v>
+        <v>6.490961064592681</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>6.478872037447744</v>
+        <v>6.404499013021734</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>6.473148266936023</v>
+        <v>6.697411522765165</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>15.22744048133936</v>
+        <v>15.06588156883606</v>
       </c>
       <c r="G8" s="5" t="n">
-        <v>7.260031596659799</v>
+        <v>7.440595363880433</v>
       </c>
       <c r="H8" s="5" t="n">
-        <v>8.743982613804356</v>
+        <v>8.67169766649835</v>
       </c>
       <c r="I8" s="5" t="n">
-        <v>11.20670599195121</v>
+        <v>11.12441449813241</v>
       </c>
       <c r="J8" s="5" t="n">
-        <v>18.07005564454563</v>
+        <v>18.43504236437391</v>
       </c>
       <c r="K8" s="5" t="n">
-        <v>7.680502355778912</v>
+        <v>7.866473957754414</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>8.370186022903365</v>
+        <v>8.338277781031172</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>9.793160204977575</v>
+        <v>9.852930657460865</v>
       </c>
       <c r="N8" s="5" t="n">
-        <v>18.40532035389049</v>
+        <v>17.96305507631136</v>
       </c>
     </row>
     <row r="9">
@@ -884,40 +884,40 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>12.21224804174081</v>
+        <v>12.59393980625782</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>12.35587394899031</v>
+        <v>12.19468969835241</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>12.50946179833661</v>
+        <v>13.15591467688151</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>32.0252543699909</v>
+        <v>31.43376220158635</v>
       </c>
       <c r="G9" s="5" t="n">
-        <v>15.06512746483769</v>
+        <v>15.33882962645669</v>
       </c>
       <c r="H9" s="5" t="n">
-        <v>15.54124766497559</v>
+        <v>14.64070689777966</v>
       </c>
       <c r="I9" s="5" t="n">
-        <v>23.18431971425852</v>
+        <v>24.4204079076006</v>
       </c>
       <c r="J9" s="5" t="n">
-        <v>26.94270240788333</v>
+        <v>27.78325335363624</v>
       </c>
       <c r="K9" s="5" t="n">
-        <v>12.59220454336564</v>
+        <v>12.77171482910296</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>12.64791502083228</v>
+        <v>12.73190742560658</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>16.87969728967697</v>
+        <v>16.81701674304353</v>
       </c>
       <c r="N9" s="5" t="n">
-        <v>26.99662103137947</v>
+        <v>26.67696238727422</v>
       </c>
     </row>
     <row r="10">
@@ -941,7 +941,7 @@
         <v>6.935107148640899</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>28.63170528444324</v>
+        <v>28.63170528444325</v>
       </c>
       <c r="G10" s="5" t="n">
         <v>10.95358909534655</v>
@@ -976,40 +976,40 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>4.61635933885976</v>
+        <v>4.283015025309676</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>6.027739031340339</v>
+        <v>5.968570334815642</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>4.699512913745391</v>
+        <v>4.736849405910182</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>19.63840585731503</v>
+        <v>20.10192536575397</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>6.353292654508628</v>
+        <v>6.440643224834709</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>4.022310795181729</v>
+        <v>3.983707411213164</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>6.606100233590206</v>
+        <v>6.532987578098282</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>14.7742792899279</v>
+        <v>14.04761234832243</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>6.752828409769936</v>
+        <v>6.445100701614074</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>5.413391359306394</v>
+        <v>5.545589377448333</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>6.604167618665215</v>
+        <v>6.335227956267183</v>
       </c>
       <c r="N11" s="5" t="n">
-        <v>18.19986424022251</v>
+        <v>18.1784156787238</v>
       </c>
     </row>
     <row r="12">
@@ -1020,40 +1020,40 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>14.35104245453285</v>
+        <v>13.34038902102877</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>17.48826804639151</v>
+        <v>16.88591376347638</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>10.45386486660898</v>
+        <v>10.02241324745952</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>42.36935994595819</v>
+        <v>43.1618259668667</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>24.66190548922696</v>
+        <v>26.04563716382777</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>10.30743950464706</v>
+        <v>10.04428895374569</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>17.31354442136036</v>
+        <v>16.60622478099873</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>27.77185506985165</v>
+        <v>27.5378243869079</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>17.76463213352109</v>
+        <v>17.33782449884211</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>11.78996762795831</v>
+        <v>11.52175471906464</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>12.70410264886387</v>
+        <v>12.26605065768982</v>
       </c>
       <c r="N12" s="5" t="n">
-        <v>30.51693495731986</v>
+        <v>30.53857451483814</v>
       </c>
     </row>
     <row r="13">
@@ -1112,40 +1112,40 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>8.157249456185424</v>
+        <v>8.353997677068815</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>8.155076426143022</v>
+        <v>8.2492259865832</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>7.952787763791948</v>
+        <v>8.107152270177513</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>19.62633036352109</v>
+        <v>19.41823795284936</v>
       </c>
       <c r="G14" s="5" t="n">
-        <v>7.377968393914236</v>
+        <v>7.432221500075271</v>
       </c>
       <c r="H14" s="5" t="n">
-        <v>7.927486448389349</v>
+        <v>7.979760786520638</v>
       </c>
       <c r="I14" s="5" t="n">
-        <v>11.14724131554214</v>
+        <v>11.25658465795592</v>
       </c>
       <c r="J14" s="5" t="n">
-        <v>19.4641904591272</v>
+        <v>19.54617993802771</v>
       </c>
       <c r="K14" s="5" t="n">
-        <v>8.268219158307581</v>
+        <v>8.204682610333693</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>8.650768637853398</v>
+        <v>8.540032647465276</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>10.43669902943406</v>
+        <v>10.5277544731385</v>
       </c>
       <c r="N14" s="5" t="n">
-        <v>20.40708449486899</v>
+        <v>20.69012938052006</v>
       </c>
     </row>
     <row r="15">
@@ -1156,40 +1156,40 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>14.16649839623425</v>
+        <v>14.65000109523315</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>12.06269579060305</v>
+        <v>12.30689346241814</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>12.51577548302388</v>
+        <v>12.39112667318913</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>31.60318458653688</v>
+        <v>30.82386219295595</v>
       </c>
       <c r="G15" s="5" t="n">
-        <v>11.55237456156902</v>
+        <v>11.40409678111371</v>
       </c>
       <c r="H15" s="5" t="n">
-        <v>12.08288117833396</v>
+        <v>12.12972690550584</v>
       </c>
       <c r="I15" s="5" t="n">
-        <v>17.89705355696498</v>
+        <v>18.12316609342579</v>
       </c>
       <c r="J15" s="5" t="n">
-        <v>26.31866624683605</v>
+        <v>26.00628806398125</v>
       </c>
       <c r="K15" s="5" t="n">
-        <v>11.42842296032479</v>
+        <v>11.61099613529769</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>11.5327185024365</v>
+        <v>11.39232111153791</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>14.78635372698242</v>
+        <v>14.69658444672065</v>
       </c>
       <c r="N15" s="5" t="n">
-        <v>26.47788205700899</v>
+        <v>26.87397172395128</v>
       </c>
     </row>
     <row r="16">
